--- a/xmind/Product Backlog.xlsx
+++ b/xmind/Product Backlog.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="630" windowWidth="23415" windowHeight="9915"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="17505" windowHeight="1710" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog Customer" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,8 @@
     <sheet name="Glossar" sheetId="5" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
+  <oleSize ref="A1:D18"/>
 </workbook>
 </file>
 
@@ -197,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="219">
   <si>
     <t>Thema</t>
   </si>
@@ -574,16 +575,10 @@
     <t>Adminstaration</t>
   </si>
   <si>
-    <t>Change Country</t>
-  </si>
-  <si>
     <t>logout</t>
   </si>
   <si>
     <t>Customer</t>
-  </si>
-  <si>
-    <t>one can change the country using drop down list in the web page</t>
   </si>
   <si>
     <t>Can not regognize the IP
@@ -594,19 +589,8 @@
 show all item of the selected country in addition show the name of city under each item</t>
   </si>
   <si>
-    <t xml:space="preserve">Show all items and all information (precent, preiod of date and time, number of bonus left, number of sold bonus, short description, all cities in the circle of selected city considering in the defined distance in the setting ) </t>
-  </si>
-  <si>
     <t>change the active languages using drop down list
 Show all text information in selected language</t>
-  </si>
-  <si>
-    <t>Show itemes in that category with regards to selected country, city , language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filter and Show in the listbox only active  coutries 
-show all item of the selected country in addition show the name of city under each item
-show list of the active cities </t>
   </si>
   <si>
     <t>save all card item per user
@@ -616,10 +600,6 @@
   </si>
   <si>
     <t>We know only the country but there is no vender items so show a welcome message to the customer an ask him to visit web site again</t>
-  </si>
-  <si>
-    <t>Scroll layout B,
-If there are some ads then insert adds otherwise extend Corb section</t>
   </si>
   <si>
     <t>go to the previous page of layout B</t>
@@ -669,10 +649,6 @@
     </r>
   </si>
   <si>
-    <t>get E-Mail and Password , user doesnot exist
-show a message and give a possibility to direct to Layout D</t>
-  </si>
-  <si>
     <r>
       <t>All Process in Layout E ,</t>
     </r>
@@ -698,21 +674,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">All Process in Layout C, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3F3F76"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Login</t>
-    </r>
-  </si>
-  <si>
     <t>after filling the form send an email to email address with an URL for verification</t>
   </si>
   <si>
@@ -827,10 +788,6 @@
     <t>if user ist not logged in, open Layout C</t>
   </si>
   <si>
-    <t>get E-Mail and Password, user exist
-back to the called page</t>
-  </si>
-  <si>
     <t xml:space="preserve">After confirmation from the URL user will be activated
 show the main previous page </t>
   </si>
@@ -887,19 +844,10 @@
     <t>passwaord forgotten</t>
   </si>
   <si>
-    <t xml:space="preserve"> generate an passwaord and send an email containing a direct link to Layout E and then show the previous page  </t>
-  </si>
-  <si>
     <t>Submit</t>
   </si>
   <si>
-    <t>go to layout A B, as a anonymous</t>
-  </si>
-  <si>
     <t xml:space="preserve">Save the new information, go to layout A B andf refresh all information with new setting </t>
-  </si>
-  <si>
-    <t>Save password, go to layout A B with the login-information</t>
   </si>
   <si>
     <t>Send an email to the user showing all items and calculate points for someone who invited user based on some formulas</t>
@@ -1148,21 +1096,6 @@
   </si>
   <si>
     <r>
-      <t>All Process in Layout N ,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3F3F76"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Password Forgotten</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>All Process in Layout O ,</t>
     </r>
     <r>
@@ -1230,12 +1163,44 @@
   <si>
     <t>Go to Layout G2</t>
   </si>
+  <si>
+    <t xml:space="preserve">Show all Cities with activ deals
+Show all items and all information (precent, preiod of date and time, number of bonus left, number of sold bonus, short description, all cities in the circle of selected city considering in the defined distance in the setting ) </t>
+  </si>
+  <si>
+    <t>change the active an existing languages
+Show all text information in selected language</t>
+  </si>
+  <si>
+    <t>Show itemes in that category with regards to selected city</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All Process in Layout C, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3F3F76"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Passwrord forgotten</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Open a window and generate an passwaord and send an email containing a direct link to Layout E </t>
+  </si>
+  <si>
+    <t>Get old password and save new password, go to layout A B with the login-information</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="43">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1988,7 +1953,7 @@
     <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="34" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2217,141 +2182,137 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="16" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="18" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="17" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="34" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="20" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="21" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="16" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="18" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="17" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="34" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="34" borderId="20" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="34" borderId="21" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="34" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2364,18 +2325,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2390,10 +2339,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Input" xfId="3" builtinId="20"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Eingabe" xfId="3" builtinId="20"/>
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2499,8 +2448,17 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -2670,11 +2628,19 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="84488576"/>
-        <c:axId val="84490880"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="95828608"/>
+        <c:axId val="95834880"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="84488576"/>
+        <c:axId val="95828608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2696,11 +2662,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="84490880"/>
+        <c:crossAx val="95834880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2708,10 +2676,11 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84490880"/>
+        <c:axId val="95834880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2730,6 +2699,8 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
@@ -2747,16 +2718,18 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84488576"/>
+        <c:crossAx val="95828608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
@@ -2815,10 +2788,101 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5991225</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 86" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6648450</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8195" name="Rectangle 3" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2888,13 +2952,104 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 8" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5705475</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3076" name="Rectangle 4" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2932,7 +3087,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2966,6 +3121,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3000,9 +3156,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3175,19 +3332,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V110"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76:D76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.28515625" style="58" customWidth="1"/>
     <col min="2" max="2" width="17.140625" style="58" customWidth="1"/>
     <col min="3" max="3" width="27.5703125" style="58" customWidth="1"/>
-    <col min="4" max="4" width="102.42578125" style="89" customWidth="1"/>
+    <col min="4" max="4" width="102.42578125" style="87" customWidth="1"/>
     <col min="5" max="5" width="33" style="58" customWidth="1"/>
     <col min="6" max="6" width="18.140625" style="58" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" style="58" customWidth="1"/>
@@ -3196,7 +3353,7 @@
     <col min="10" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15">
+    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
@@ -3239,56 +3396,71 @@
       <c r="T1" s="57"/>
       <c r="U1" s="57"/>
     </row>
-    <row r="2" spans="1:22" s="59" customFormat="1" ht="28.5">
-      <c r="B2" s="98" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="100"/>
-    </row>
-    <row r="3" spans="1:22" s="60" customFormat="1" ht="15">
-      <c r="B3" s="61" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="62" t="s">
+    <row r="2" spans="1:22" s="59" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B2" s="97" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="98"/>
+      <c r="D2" s="99"/>
+    </row>
+    <row r="3" spans="1:22" s="60" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="60" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="B4" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="63" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" s="60" customFormat="1" ht="110.25" customHeight="1">
-      <c r="B4" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="65" t="s">
-        <v>93</v>
-      </c>
       <c r="D4" s="63" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" s="60" customFormat="1" ht="51">
-      <c r="B5" s="61" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" s="62" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="57"/>
+      <c r="B5" s="94" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="63" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="15">
+      <c r="C5" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="57"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+    </row>
+    <row r="6" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="57"/>
-      <c r="B6" s="95" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="92" t="s">
-        <v>57</v>
-      </c>
+      <c r="B6" s="95"/>
+      <c r="C6" s="92"/>
       <c r="D6" s="66" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="E6" s="57"/>
       <c r="F6" s="67"/>
@@ -3309,12 +3481,12 @@
       <c r="U6" s="57"/>
       <c r="V6" s="57"/>
     </row>
-    <row r="7" spans="1:22" ht="25.5">
+    <row r="7" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="57"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="93"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="66" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E7" s="57"/>
       <c r="F7" s="67"/>
@@ -3335,805 +3507,683 @@
       <c r="U7" s="57"/>
       <c r="V7" s="57"/>
     </row>
-    <row r="8" spans="1:22" ht="25.5">
-      <c r="A8" s="57"/>
+    <row r="8" spans="1:22" s="60" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B8" s="96"/>
       <c r="C8" s="93"/>
-      <c r="D8" s="66" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="57"/>
-    </row>
-    <row r="9" spans="1:22" s="60" customFormat="1" ht="25.5">
-      <c r="B9" s="97"/>
-      <c r="C9" s="94"/>
+      <c r="D8" s="63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" s="60" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B9" s="61"/>
+      <c r="C9" s="70" t="s">
+        <v>53</v>
+      </c>
       <c r="D9" s="63" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" s="60" customFormat="1" ht="38.25">
-      <c r="B10" s="61"/>
-      <c r="C10" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="63" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" s="60" customFormat="1" ht="25.5">
-      <c r="B11" s="61"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="57"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="66" t="s">
+        <v>214</v>
+      </c>
+      <c r="E10" s="57"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="57"/>
+    </row>
+    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="57"/>
+      <c r="B11" s="71"/>
       <c r="C11" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="63" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="25.5">
-      <c r="A12" s="57"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="72" t="s">
+        <v>215</v>
+      </c>
+      <c r="E11" s="57"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="57"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B12" s="73"/>
+      <c r="C12" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="75" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B13" s="73"/>
+      <c r="C13" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="75" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B14" s="73"/>
+      <c r="C14" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
-    </row>
-    <row r="13" spans="1:22" ht="15">
-      <c r="A13" s="57"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="73" t="s">
-        <v>133</v>
-      </c>
-      <c r="E13" s="57"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="57"/>
-    </row>
-    <row r="14" spans="1:22" ht="25.5">
-      <c r="B14" s="72"/>
-      <c r="C14" s="72" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="66" t="s">
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B15" s="76"/>
+      <c r="C15" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="77" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B16" s="76"/>
+      <c r="C16" s="76" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="77" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="77" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="76"/>
+      <c r="C18" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="77" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" s="59" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B19" s="103" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="104"/>
+      <c r="D19" s="105"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="73"/>
+      <c r="C20" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="75" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" s="59" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B21" s="103" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="104"/>
+      <c r="D21" s="105"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="90"/>
+      <c r="C22" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" s="80" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B23" s="103" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="104"/>
+      <c r="D23" s="105"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="73"/>
+      <c r="C24" s="100" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B25" s="73"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="80" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="73"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="80" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B27" s="73"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="80" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="76"/>
+      <c r="C28" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" s="83" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="76"/>
+      <c r="C29" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="83" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B30" s="103" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="104"/>
+      <c r="D30" s="105"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="76"/>
+      <c r="C31" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31" s="83" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B32" s="103" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="B15" s="74"/>
-      <c r="C15" s="75" t="s">
-        <v>119</v>
-      </c>
-      <c r="D15" s="76" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="B16" s="74"/>
-      <c r="C16" s="74" t="s">
+      <c r="C32" s="104"/>
+      <c r="D32" s="105"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="76"/>
+      <c r="C33" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="D33" s="83" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="76"/>
+      <c r="C34" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" s="83" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="76"/>
+      <c r="C35" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="83" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B36" s="103" t="s">
+        <v>208</v>
+      </c>
+      <c r="C36" s="104"/>
+      <c r="D36" s="105"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="73"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="84"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="73"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="75"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="73"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="84"/>
+    </row>
+    <row r="40" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B40" s="103" t="s">
+        <v>207</v>
+      </c>
+      <c r="C40" s="104"/>
+      <c r="D40" s="105"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="73"/>
+      <c r="C41" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="76" t="s">
+      <c r="D41" s="75" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" s="73"/>
+      <c r="C42" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="84" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="73"/>
+      <c r="C43" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="75" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="73"/>
+      <c r="C44" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="84" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="73"/>
+      <c r="C45" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="84" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B46" s="73"/>
+      <c r="C46" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" s="75" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B47" s="73"/>
+      <c r="C47" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="D47" s="75" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B48" s="73"/>
+      <c r="C48" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="75" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B49" s="103" t="s">
+        <v>210</v>
+      </c>
+      <c r="C49" s="104"/>
+      <c r="D49" s="105"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="73"/>
+      <c r="C50" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="75" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" s="76"/>
+      <c r="C51" s="76" t="s">
+        <v>211</v>
+      </c>
+      <c r="D51" s="77" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B52" s="103" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" s="104"/>
+      <c r="D52" s="105"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53" s="73"/>
+      <c r="C53" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="75" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54" s="73"/>
+      <c r="C54" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" s="84" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" s="73"/>
+      <c r="C55" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55" s="75" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" s="73"/>
+      <c r="C56" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="D56" s="75" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B57" s="73"/>
+      <c r="C57" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" s="75" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B58" s="103" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="74"/>
-      <c r="C17" s="74" t="s">
+      <c r="C58" s="104"/>
+      <c r="D58" s="105"/>
+    </row>
+    <row r="59" spans="2:4" s="85" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="73"/>
+      <c r="C59" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" s="75" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" s="85" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="73"/>
+      <c r="C60" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="D60" s="75" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B61" s="103" t="s">
+        <v>152</v>
+      </c>
+      <c r="C61" s="104"/>
+      <c r="D61" s="105"/>
+    </row>
+    <row r="62" spans="2:4" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="D62" s="86" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B63" s="73"/>
+      <c r="C63" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="D63" s="75" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B64" s="73"/>
+      <c r="C64" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="D64" s="75" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65" s="73"/>
+      <c r="C65" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="76" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="77"/>
-      <c r="C18" s="77" t="s">
-        <v>164</v>
-      </c>
-      <c r="D18" s="78" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="77"/>
-      <c r="C19" s="77" t="s">
-        <v>166</v>
-      </c>
-      <c r="D19" s="78" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="78" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="77"/>
-      <c r="C21" s="77" t="s">
-        <v>169</v>
-      </c>
-      <c r="D21" s="78" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" s="59" customFormat="1" ht="28.5">
-      <c r="B22" s="104" t="s">
-        <v>148</v>
-      </c>
-      <c r="C22" s="105"/>
-      <c r="D22" s="106"/>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="74"/>
-      <c r="C23" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="76" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="77"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="78"/>
-    </row>
-    <row r="25" spans="2:4" s="59" customFormat="1" ht="28.5">
-      <c r="B25" s="104" t="s">
-        <v>143</v>
-      </c>
-      <c r="C25" s="105"/>
-      <c r="D25" s="106"/>
-    </row>
-    <row r="26" spans="2:4" s="60" customFormat="1" ht="25.5">
-      <c r="B26" s="107" t="s">
-        <v>127</v>
-      </c>
-      <c r="C26" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="63" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" s="59" customFormat="1" ht="25.5">
-      <c r="B27" s="108"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="63" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="109"/>
-      <c r="C28" s="71" t="s">
+      <c r="D65" s="75" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66" s="73"/>
+      <c r="C66" s="74"/>
+      <c r="D66" s="75"/>
+    </row>
+    <row r="67" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B67" s="103" t="s">
+        <v>172</v>
+      </c>
+      <c r="C67" s="104"/>
+      <c r="D67" s="105"/>
+    </row>
+    <row r="68" spans="2:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B68" s="73"/>
+      <c r="C68" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="D68" s="80" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B69" s="73"/>
+      <c r="C69" s="73"/>
+      <c r="D69" s="75" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70" s="73"/>
+      <c r="C70" s="74" t="s">
         <v>176</v>
       </c>
-      <c r="D28" s="82" t="s">
+      <c r="D70" s="75" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="83"/>
-      <c r="C29" s="84" t="s">
-        <v>173</v>
-      </c>
-      <c r="D29" s="85" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="83"/>
-      <c r="C30" s="84" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="85" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" ht="28.5">
-      <c r="B31" s="104" t="s">
-        <v>171</v>
-      </c>
-      <c r="C31" s="105"/>
-      <c r="D31" s="106"/>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="74"/>
-      <c r="C32" s="101" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" s="76" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="25.5">
-      <c r="B33" s="74"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="82" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="74"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="82" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" ht="25.5">
-      <c r="B35" s="74"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="82" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="77"/>
-      <c r="C36" s="79" t="s">
-        <v>173</v>
-      </c>
-      <c r="D36" s="85" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="77"/>
-      <c r="C37" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" s="85" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" ht="28.5">
-      <c r="B38" s="104" t="s">
-        <v>142</v>
-      </c>
-      <c r="C38" s="105"/>
-      <c r="D38" s="106"/>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="77"/>
-      <c r="C39" s="79" t="s">
-        <v>178</v>
-      </c>
-      <c r="D39" s="85" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="77"/>
-      <c r="C40" s="79" t="s">
-        <v>173</v>
-      </c>
-      <c r="D40" s="85" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="77"/>
-      <c r="C41" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="D41" s="85" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" ht="28.5">
-      <c r="B42" s="104" t="s">
-        <v>145</v>
-      </c>
-      <c r="C42" s="105"/>
-      <c r="D42" s="106"/>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="77"/>
-      <c r="C43" s="79" t="s">
-        <v>178</v>
-      </c>
-      <c r="D43" s="85" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="77"/>
-      <c r="C44" s="79" t="s">
-        <v>173</v>
-      </c>
-      <c r="D44" s="85" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45" s="77"/>
-      <c r="C45" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="D45" s="85" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" ht="28.5">
-      <c r="B46" s="104" t="s">
-        <v>221</v>
-      </c>
-      <c r="C46" s="105"/>
-      <c r="D46" s="106"/>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47" s="74"/>
-      <c r="C47" s="74"/>
-      <c r="D47" s="86"/>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="74"/>
-      <c r="C48" s="74"/>
-      <c r="D48" s="76"/>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="74"/>
-      <c r="C49" s="74"/>
-      <c r="D49" s="86"/>
-    </row>
-    <row r="50" spans="2:4" ht="28.5">
-      <c r="B50" s="104" t="s">
-        <v>220</v>
-      </c>
-      <c r="C50" s="105"/>
-      <c r="D50" s="106"/>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="B51" s="74"/>
-      <c r="C51" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="D51" s="76" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="B52" s="74"/>
-      <c r="C52" s="74" t="s">
-        <v>86</v>
-      </c>
-      <c r="D52" s="86" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53" s="74"/>
-      <c r="C53" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="D53" s="76" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="B54" s="74"/>
-      <c r="C54" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="D54" s="86" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4">
-      <c r="B55" s="74"/>
-      <c r="C55" s="74" t="s">
-        <v>80</v>
-      </c>
-      <c r="D55" s="86" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="B56" s="74"/>
-      <c r="C56" s="75" t="s">
-        <v>152</v>
-      </c>
-      <c r="D56" s="76" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4">
-      <c r="B57" s="74"/>
-      <c r="C57" s="75" t="s">
-        <v>173</v>
-      </c>
-      <c r="D57" s="76" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4">
-      <c r="B58" s="74"/>
-      <c r="C58" s="75" t="s">
-        <v>71</v>
-      </c>
-      <c r="D58" s="76" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" ht="28.5">
-      <c r="B59" s="104" t="s">
-        <v>223</v>
-      </c>
-      <c r="C59" s="105"/>
-      <c r="D59" s="106"/>
-    </row>
-    <row r="60" spans="2:4">
-      <c r="B60" s="74"/>
-      <c r="C60" s="74" t="s">
-        <v>75</v>
-      </c>
-      <c r="D60" s="76" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="B61" s="77"/>
-      <c r="C61" s="77" t="s">
-        <v>224</v>
-      </c>
-      <c r="D61" s="78" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" ht="28.5">
-      <c r="B62" s="104" t="s">
-        <v>146</v>
-      </c>
-      <c r="C62" s="105"/>
-      <c r="D62" s="106"/>
-    </row>
-    <row r="63" spans="2:4">
-      <c r="B63" s="74"/>
-      <c r="C63" s="74" t="s">
-        <v>87</v>
-      </c>
-      <c r="D63" s="76" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4">
-      <c r="B64" s="74"/>
-      <c r="C64" s="74" t="s">
-        <v>89</v>
-      </c>
-      <c r="D64" s="86" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4">
-      <c r="B65" s="74"/>
-      <c r="C65" s="74" t="s">
-        <v>75</v>
-      </c>
-      <c r="D65" s="76" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4">
-      <c r="B66" s="74"/>
-      <c r="C66" s="75" t="s">
-        <v>173</v>
-      </c>
-      <c r="D66" s="76" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4">
-      <c r="B67" s="74"/>
-      <c r="C67" s="75" t="s">
-        <v>71</v>
-      </c>
-      <c r="D67" s="76" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" ht="28.5">
-      <c r="B68" s="104" t="s">
-        <v>155</v>
-      </c>
-      <c r="C68" s="105"/>
-      <c r="D68" s="106"/>
-    </row>
-    <row r="69" spans="2:4" s="87" customFormat="1">
-      <c r="B69" s="74"/>
-      <c r="C69" s="75" t="s">
-        <v>75</v>
-      </c>
-      <c r="D69" s="76" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" s="87" customFormat="1">
-      <c r="B70" s="74"/>
-      <c r="C70" s="75" t="s">
-        <v>157</v>
-      </c>
-      <c r="D70" s="76" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" ht="28.5">
-      <c r="B71" s="104" t="s">
-        <v>160</v>
-      </c>
-      <c r="C71" s="105"/>
-      <c r="D71" s="106"/>
-    </row>
-    <row r="72" spans="2:4" s="59" customFormat="1">
-      <c r="C72" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D72" s="88" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4">
-      <c r="B73" s="74"/>
-      <c r="C73" s="75" t="s">
-        <v>116</v>
-      </c>
-      <c r="D73" s="76" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4">
-      <c r="B74" s="74"/>
-      <c r="C74" s="75" t="s">
-        <v>117</v>
-      </c>
-      <c r="D74" s="76" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4">
-      <c r="B75" s="74"/>
-      <c r="C75" s="75" t="s">
-        <v>71</v>
-      </c>
-      <c r="D75" s="76" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4">
-      <c r="B76" s="74"/>
-      <c r="C76" s="75"/>
-      <c r="D76" s="76"/>
-    </row>
-    <row r="77" spans="2:4" ht="28.5">
-      <c r="B77" s="104" t="s">
-        <v>184</v>
-      </c>
-      <c r="C77" s="105"/>
-      <c r="D77" s="106"/>
-    </row>
-    <row r="78" spans="2:4" ht="38.25">
-      <c r="B78" s="74"/>
-      <c r="C78" s="63" t="s">
-        <v>185</v>
-      </c>
-      <c r="D78" s="82" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4">
-      <c r="B79" s="74"/>
-      <c r="C79" s="74"/>
-      <c r="D79" s="76" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4">
-      <c r="B80" s="74"/>
-      <c r="C80" s="75" t="s">
-        <v>188</v>
-      </c>
-      <c r="D80" s="76" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" ht="28.5">
-      <c r="B81" s="104" t="s">
-        <v>216</v>
-      </c>
-      <c r="C81" s="105"/>
-      <c r="D81" s="106"/>
-    </row>
-    <row r="82" spans="2:4">
+    <row r="71" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B71" s="103" t="s">
+        <v>204</v>
+      </c>
+      <c r="C71" s="104"/>
+      <c r="D71" s="105"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B72" s="73"/>
+      <c r="C72" s="74"/>
+      <c r="D72" s="75"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B73" s="73"/>
+      <c r="C73" s="73"/>
+      <c r="D73" s="84"/>
+    </row>
+    <row r="74" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B74" s="103" t="s">
+        <v>205</v>
+      </c>
+      <c r="C74" s="104"/>
+      <c r="D74" s="105"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B75" s="73"/>
+      <c r="C75" s="73"/>
+      <c r="D75" s="84"/>
+    </row>
+    <row r="76" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B76" s="103" t="s">
+        <v>206</v>
+      </c>
+      <c r="C76" s="104"/>
+      <c r="D76" s="105"/>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B77" s="73"/>
+      <c r="C77" s="73"/>
+      <c r="D77" s="84"/>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B78" s="73"/>
+      <c r="C78" s="73"/>
+      <c r="D78" s="84"/>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B79" s="73"/>
+      <c r="C79" s="73"/>
+      <c r="D79" s="84"/>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B80" s="73"/>
+      <c r="C80" s="73"/>
+      <c r="D80" s="84"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B81" s="73"/>
+      <c r="C81" s="73"/>
+      <c r="D81" s="84"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82" s="74"/>
-      <c r="C82" s="75"/>
-      <c r="D82" s="76"/>
-    </row>
-    <row r="83" spans="2:4">
+      <c r="C82" s="73"/>
+      <c r="D82" s="84"/>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" s="74"/>
-      <c r="C83" s="74"/>
-      <c r="D83" s="86"/>
-    </row>
-    <row r="84" spans="2:4" ht="28.5">
-      <c r="B84" s="104" t="s">
-        <v>217</v>
-      </c>
-      <c r="C84" s="105"/>
-      <c r="D84" s="106"/>
-    </row>
-    <row r="85" spans="2:4">
-      <c r="B85" s="74"/>
-      <c r="C85" s="74"/>
-      <c r="D85" s="86"/>
-    </row>
-    <row r="86" spans="2:4" ht="28.5">
-      <c r="B86" s="104" t="s">
-        <v>218</v>
-      </c>
-      <c r="C86" s="105"/>
-      <c r="D86" s="106"/>
-    </row>
-    <row r="87" spans="2:4">
-      <c r="B87" s="75"/>
-      <c r="C87" s="74"/>
-      <c r="D87" s="86"/>
-    </row>
-    <row r="88" spans="2:4">
-      <c r="B88" s="75"/>
-      <c r="C88" s="74"/>
-      <c r="D88" s="86"/>
-    </row>
-    <row r="89" spans="2:4" ht="28.5">
-      <c r="B89" s="104" t="s">
-        <v>219</v>
-      </c>
-      <c r="C89" s="105"/>
-      <c r="D89" s="106"/>
-    </row>
-    <row r="90" spans="2:4">
-      <c r="B90" s="74"/>
-      <c r="C90" s="74"/>
-      <c r="D90" s="86"/>
-    </row>
-    <row r="91" spans="2:4">
-      <c r="B91" s="74"/>
-      <c r="C91" s="74"/>
-      <c r="D91" s="86"/>
-    </row>
-    <row r="92" spans="2:4">
-      <c r="B92" s="74"/>
-      <c r="C92" s="74"/>
-      <c r="D92" s="86"/>
-    </row>
-    <row r="93" spans="2:4">
-      <c r="B93" s="74"/>
-      <c r="C93" s="74"/>
-      <c r="D93" s="86"/>
-    </row>
-    <row r="94" spans="2:4">
-      <c r="B94" s="74"/>
-      <c r="C94" s="74"/>
-      <c r="D94" s="86"/>
-    </row>
-    <row r="95" spans="2:4">
-      <c r="B95" s="75"/>
-      <c r="C95" s="74"/>
-      <c r="D95" s="86"/>
-    </row>
-    <row r="96" spans="2:4">
-      <c r="B96" s="75"/>
-      <c r="C96" s="74"/>
-      <c r="D96" s="86"/>
-    </row>
-    <row r="97" spans="2:4">
-      <c r="B97" s="74"/>
-      <c r="C97" s="74"/>
-      <c r="D97" s="86"/>
-    </row>
-    <row r="98" spans="2:4">
-      <c r="B98" s="74"/>
-      <c r="C98" s="74"/>
-      <c r="D98" s="86"/>
-    </row>
-    <row r="99" spans="2:4">
-      <c r="B99" s="74"/>
-      <c r="C99" s="74"/>
-      <c r="D99" s="86"/>
-    </row>
-    <row r="100" spans="2:4">
-      <c r="B100" s="74"/>
-      <c r="C100" s="74"/>
-      <c r="D100" s="86"/>
-    </row>
-    <row r="101" spans="2:4">
-      <c r="B101" s="74"/>
-      <c r="C101" s="74"/>
-      <c r="D101" s="86"/>
-    </row>
-    <row r="110" spans="2:4">
-      <c r="C110" s="58" t="s">
+      <c r="C83" s="73"/>
+      <c r="D83" s="84"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B84" s="73"/>
+      <c r="C84" s="73"/>
+      <c r="D84" s="84"/>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B85" s="73"/>
+      <c r="C85" s="73"/>
+      <c r="D85" s="84"/>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B86" s="73"/>
+      <c r="C86" s="73"/>
+      <c r="D86" s="84"/>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B87" s="73"/>
+      <c r="C87" s="73"/>
+      <c r="D87" s="84"/>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B88" s="73"/>
+      <c r="C88" s="73"/>
+      <c r="D88" s="84"/>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C97" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="D110" s="89" t="s">
+      <c r="D97" s="87" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B6:B9"/>
+  <mergeCells count="19">
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="B5:B8"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B58:D58"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -4143,19 +4193,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="58" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" style="58" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="186.42578125" style="89" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="186.42578125" style="87" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" style="58" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" style="58" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" style="58" bestFit="1" customWidth="1"/>
@@ -4165,7 +4215,7 @@
     <col min="11" max="16384" width="17.140625" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15">
+    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
@@ -4208,39 +4258,39 @@
       <c r="T1" s="57"/>
       <c r="U1" s="57"/>
     </row>
-    <row r="2" spans="1:22" s="59" customFormat="1" ht="28.5">
-      <c r="B2" s="98" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="100"/>
-    </row>
-    <row r="3" spans="1:22" s="60" customFormat="1" ht="15">
+    <row r="2" spans="1:22" s="59" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B2" s="97" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="98"/>
+      <c r="D2" s="99"/>
+    </row>
+    <row r="3" spans="1:22" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="64"/>
       <c r="C3" s="65" t="s">
         <v>93</v>
       </c>
       <c r="D3" s="63" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" s="60" customFormat="1" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="64"/>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="79" t="s">
         <v>65</v>
       </c>
       <c r="D4" s="63" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="25.5">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="57"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72" t="s">
+      <c r="B5" s="71"/>
+      <c r="C5" s="71" t="s">
         <v>51</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E5" s="57"/>
       <c r="F5" s="67"/>
@@ -4261,263 +4311,263 @@
       <c r="U5" s="57"/>
       <c r="V5" s="57"/>
     </row>
-    <row r="6" spans="1:22">
-      <c r="B6" s="77"/>
-      <c r="C6" s="77" t="s">
-        <v>169</v>
-      </c>
-      <c r="D6" s="78" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" s="59" customFormat="1" ht="28.5">
-      <c r="B7" s="104" t="s">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B6" s="76"/>
+      <c r="C6" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="77" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="59" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="103" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="104"/>
+      <c r="D7" s="105"/>
+    </row>
+    <row r="8" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B8" s="73"/>
+      <c r="C8" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="80" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B9" s="76"/>
+      <c r="C9" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="80" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B10" s="76"/>
+      <c r="C10" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="77" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="59" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B11" s="103" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="104"/>
+      <c r="D11" s="105"/>
+    </row>
+    <row r="12" spans="1:22" s="60" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="B12" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="79" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" s="63" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B13" s="81"/>
+      <c r="C13" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="83" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B14" s="81"/>
+      <c r="C14" s="82" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="83" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B15" s="103" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="104"/>
+      <c r="D15" s="105"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B16" s="73"/>
+      <c r="C16" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="106"/>
-    </row>
-    <row r="8" spans="1:22" ht="38.25">
-      <c r="B8" s="74"/>
-      <c r="C8" s="63" t="s">
-        <v>178</v>
-      </c>
-      <c r="D8" s="82" t="s">
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="73"/>
+      <c r="C17" s="89" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" s="80" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="73"/>
+      <c r="C18" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="D18" s="80" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="73"/>
+      <c r="C19" s="89" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19" s="80" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="73"/>
+      <c r="C20" s="70" t="s">
+        <v>194</v>
+      </c>
+      <c r="D20" s="80" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="76"/>
+      <c r="C21" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" s="83" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="76"/>
+      <c r="C22" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="77" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="76"/>
+      <c r="C23" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="83" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B24" s="103" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" s="104"/>
+      <c r="D24" s="105"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="76"/>
+      <c r="C25" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="83" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="76"/>
+      <c r="C26" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" s="83" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="76"/>
+      <c r="C27" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="83" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
-      <c r="B9" s="77"/>
-      <c r="C9" s="71" t="s">
-        <v>176</v>
-      </c>
-      <c r="D9" s="82" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="B10" s="77"/>
-      <c r="C10" s="79" t="s">
-        <v>173</v>
-      </c>
-      <c r="D10" s="78" t="s">
+    <row r="28" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B28" s="103" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" s="104"/>
+      <c r="D28" s="105"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="76"/>
+      <c r="C29" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29" s="83" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="59" customFormat="1" ht="28.5">
-      <c r="B11" s="104" t="s">
-        <v>192</v>
-      </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="106"/>
-    </row>
-    <row r="12" spans="1:22" s="60" customFormat="1" ht="51">
-      <c r="B12" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="80" t="s">
-        <v>194</v>
-      </c>
-      <c r="D12" s="63" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="B13" s="83"/>
-      <c r="C13" s="84" t="s">
-        <v>173</v>
-      </c>
-      <c r="D13" s="85" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="B14" s="83"/>
-      <c r="C14" s="84" t="s">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="76"/>
+      <c r="C30" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" s="83" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="76"/>
+      <c r="C31" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="85" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="28.5">
-      <c r="B15" s="104" t="s">
-        <v>193</v>
-      </c>
-      <c r="C15" s="105"/>
-      <c r="D15" s="106"/>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="B16" s="74"/>
-      <c r="C16" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" s="76" t="s">
+      <c r="D31" s="83" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B32" s="103" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="74"/>
-      <c r="C17" s="91" t="s">
-        <v>204</v>
-      </c>
-      <c r="D17" s="82" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="74"/>
-      <c r="C18" s="91" t="s">
-        <v>205</v>
-      </c>
-      <c r="D18" s="82" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="74"/>
-      <c r="C19" s="91" t="s">
-        <v>207</v>
-      </c>
-      <c r="D19" s="82" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="74"/>
-      <c r="C20" s="71" t="s">
-        <v>206</v>
-      </c>
-      <c r="D20" s="82" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="77"/>
-      <c r="C21" s="79" t="s">
-        <v>173</v>
-      </c>
-      <c r="D21" s="85" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="77"/>
-      <c r="C22" s="77" t="s">
-        <v>164</v>
-      </c>
-      <c r="D22" s="78" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="77"/>
-      <c r="C23" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="85" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="28.5">
-      <c r="B24" s="104" t="s">
-        <v>196</v>
-      </c>
-      <c r="C24" s="105"/>
-      <c r="D24" s="106"/>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="77"/>
-      <c r="C25" s="79" t="s">
-        <v>178</v>
-      </c>
-      <c r="D25" s="85" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="77"/>
-      <c r="C26" s="79" t="s">
-        <v>173</v>
-      </c>
-      <c r="D26" s="85" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="77"/>
-      <c r="C27" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="85" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" ht="28.5">
-      <c r="B28" s="104" t="s">
-        <v>197</v>
-      </c>
-      <c r="C28" s="105"/>
-      <c r="D28" s="106"/>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="77"/>
-      <c r="C29" s="79" t="s">
-        <v>178</v>
-      </c>
-      <c r="D29" s="85" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="77"/>
-      <c r="C30" s="79" t="s">
-        <v>173</v>
-      </c>
-      <c r="D30" s="85" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="77"/>
-      <c r="C31" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="85" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" ht="28.5">
-      <c r="B32" s="104" t="s">
-        <v>215</v>
-      </c>
-      <c r="C32" s="105"/>
-      <c r="D32" s="106"/>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="74"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="86"/>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="74"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="86"/>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="74"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="86"/>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="74"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="86"/>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="74"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="86"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="105"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="84"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="84"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="84"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="84"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="73"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4530,19 +4580,20 @@
     <mergeCell ref="B11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="115" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="3.140625" customWidth="1"/>
@@ -4557,7 +4608,7 @@
     <col min="13" max="13" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="12.75" customHeight="1">
+    <row r="1" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="32" t="s">
         <v>11</v>
       </c>
@@ -4614,7 +4665,7 @@
       <c r="X1" s="32"/>
       <c r="Y1" s="32"/>
     </row>
-    <row r="2" spans="1:25" ht="12.75" customHeight="1">
+    <row r="2" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -4641,7 +4692,7 @@
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
     </row>
-    <row r="3" spans="1:25" ht="12.75" customHeight="1">
+    <row r="3" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -4668,7 +4719,7 @@
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
     </row>
-    <row r="4" spans="1:25" ht="12.75" customHeight="1">
+    <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4695,7 +4746,7 @@
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
     </row>
-    <row r="5" spans="1:25" ht="12.75" customHeight="1">
+    <row r="5" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -4722,7 +4773,7 @@
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
     </row>
-    <row r="6" spans="1:25" ht="12.75" customHeight="1">
+    <row r="6" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -4749,7 +4800,7 @@
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
     </row>
-    <row r="7" spans="1:25" ht="12.75" customHeight="1">
+    <row r="7" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -4776,7 +4827,7 @@
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
     </row>
-    <row r="8" spans="1:25" ht="12.75" customHeight="1">
+    <row r="8" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -4803,7 +4854,7 @@
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
     </row>
-    <row r="9" spans="1:25" ht="12.75" customHeight="1">
+    <row r="9" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -4830,7 +4881,7 @@
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
     </row>
-    <row r="10" spans="1:25" ht="12.75" customHeight="1">
+    <row r="10" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -4857,7 +4908,7 @@
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
     </row>
-    <row r="11" spans="1:25" ht="12.75" customHeight="1">
+    <row r="11" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -4884,7 +4935,7 @@
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
     </row>
-    <row r="12" spans="1:25" ht="12.75" customHeight="1">
+    <row r="12" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -4911,7 +4962,7 @@
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
     </row>
-    <row r="13" spans="1:25" ht="12.75" customHeight="1">
+    <row r="13" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -4938,7 +4989,7 @@
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
     </row>
-    <row r="14" spans="1:25" ht="12.75" customHeight="1">
+    <row r="14" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -4965,7 +5016,7 @@
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
     </row>
-    <row r="15" spans="1:25" ht="12.75" customHeight="1">
+    <row r="15" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -4992,7 +5043,7 @@
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
     </row>
-    <row r="16" spans="1:25" ht="12.75" customHeight="1">
+    <row r="16" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -5019,7 +5070,7 @@
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
     </row>
-    <row r="17" spans="1:25" ht="12.75" customHeight="1">
+    <row r="17" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -5046,7 +5097,7 @@
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
     </row>
-    <row r="18" spans="1:25" ht="12.75" customHeight="1">
+    <row r="18" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -5073,7 +5124,7 @@
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
     </row>
-    <row r="19" spans="1:25" ht="12.75" customHeight="1">
+    <row r="19" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -5100,7 +5151,7 @@
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
     </row>
-    <row r="20" spans="1:25" ht="12.75" customHeight="1">
+    <row r="20" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -5127,7 +5178,7 @@
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
     </row>
-    <row r="21" spans="1:25" ht="12.75" customHeight="1">
+    <row r="21" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -5154,7 +5205,7 @@
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
     </row>
-    <row r="22" spans="1:25" ht="12.75" customHeight="1">
+    <row r="22" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -5181,7 +5232,7 @@
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
     </row>
-    <row r="23" spans="1:25" ht="12.75" customHeight="1">
+    <row r="23" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -5208,7 +5259,7 @@
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
     </row>
-    <row r="24" spans="1:25" ht="12.75" customHeight="1">
+    <row r="24" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -5235,7 +5286,7 @@
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
     </row>
-    <row r="25" spans="1:25" ht="12.75" customHeight="1">
+    <row r="25" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -5262,7 +5313,7 @@
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
     </row>
-    <row r="26" spans="1:25" ht="12.75" customHeight="1">
+    <row r="26" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -5289,7 +5340,7 @@
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
     </row>
-    <row r="27" spans="1:25" ht="12.75" customHeight="1">
+    <row r="27" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -5316,7 +5367,7 @@
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
     </row>
-    <row r="28" spans="1:25" ht="12.75" customHeight="1">
+    <row r="28" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -5343,7 +5394,7 @@
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
     </row>
-    <row r="29" spans="1:25" ht="12.75" customHeight="1">
+    <row r="29" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -5370,7 +5421,7 @@
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
     </row>
-    <row r="30" spans="1:25" ht="12.75" customHeight="1">
+    <row r="30" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -5397,7 +5448,7 @@
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
     </row>
-    <row r="31" spans="1:25" ht="12.75" customHeight="1">
+    <row r="31" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -5424,7 +5475,7 @@
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
     </row>
-    <row r="32" spans="1:25" ht="12.75" customHeight="1">
+    <row r="32" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -5451,7 +5502,7 @@
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
     </row>
-    <row r="33" spans="1:25" ht="12.75" customHeight="1">
+    <row r="33" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -5478,7 +5529,7 @@
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
     </row>
-    <row r="34" spans="1:25" ht="12.75" customHeight="1">
+    <row r="34" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -5505,7 +5556,7 @@
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
     </row>
-    <row r="35" spans="1:25" ht="12.75" customHeight="1">
+    <row r="35" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -5532,7 +5583,7 @@
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
     </row>
-    <row r="36" spans="1:25" ht="12.75" customHeight="1">
+    <row r="36" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -5559,7 +5610,7 @@
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -5586,7 +5637,7 @@
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -5613,7 +5664,7 @@
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -5640,7 +5691,7 @@
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -5667,7 +5718,7 @@
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -5694,7 +5745,7 @@
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -5721,7 +5772,7 @@
       <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -5748,7 +5799,7 @@
       <c r="X43" s="5"/>
       <c r="Y43" s="5"/>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -5775,7 +5826,7 @@
       <c r="X44" s="5"/>
       <c r="Y44" s="5"/>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -5802,7 +5853,7 @@
       <c r="X45" s="5"/>
       <c r="Y45" s="5"/>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -5829,7 +5880,7 @@
       <c r="X46" s="5"/>
       <c r="Y46" s="5"/>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -5856,7 +5907,7 @@
       <c r="X47" s="5"/>
       <c r="Y47" s="5"/>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -5883,7 +5934,7 @@
       <c r="X48" s="5"/>
       <c r="Y48" s="5"/>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -5910,7 +5961,7 @@
       <c r="X49" s="5"/>
       <c r="Y49" s="5"/>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -5937,7 +5988,7 @@
       <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -5964,7 +6015,7 @@
       <c r="X51" s="5"/>
       <c r="Y51" s="5"/>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -5991,7 +6042,7 @@
       <c r="X52" s="5"/>
       <c r="Y52" s="5"/>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -6018,7 +6069,7 @@
       <c r="X53" s="5"/>
       <c r="Y53" s="5"/>
     </row>
-    <row r="54" spans="1:25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -6045,7 +6096,7 @@
       <c r="X54" s="5"/>
       <c r="Y54" s="5"/>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -6072,7 +6123,7 @@
       <c r="X55" s="5"/>
       <c r="Y55" s="5"/>
     </row>
-    <row r="56" spans="1:25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -6099,7 +6150,7 @@
       <c r="X56" s="5"/>
       <c r="Y56" s="5"/>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -6126,7 +6177,7 @@
       <c r="X57" s="5"/>
       <c r="Y57" s="5"/>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -6153,7 +6204,7 @@
       <c r="X58" s="5"/>
       <c r="Y58" s="5"/>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -6180,7 +6231,7 @@
       <c r="X59" s="5"/>
       <c r="Y59" s="5"/>
     </row>
-    <row r="60" spans="1:25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -6207,7 +6258,7 @@
       <c r="X60" s="5"/>
       <c r="Y60" s="5"/>
     </row>
-    <row r="61" spans="1:25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -6234,7 +6285,7 @@
       <c r="X61" s="5"/>
       <c r="Y61" s="5"/>
     </row>
-    <row r="62" spans="1:25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -6261,7 +6312,7 @@
       <c r="X62" s="5"/>
       <c r="Y62" s="5"/>
     </row>
-    <row r="63" spans="1:25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -6288,7 +6339,7 @@
       <c r="X63" s="5"/>
       <c r="Y63" s="5"/>
     </row>
-    <row r="64" spans="1:25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -6315,7 +6366,7 @@
       <c r="X64" s="5"/>
       <c r="Y64" s="5"/>
     </row>
-    <row r="65" spans="1:25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -6342,7 +6393,7 @@
       <c r="X65" s="5"/>
       <c r="Y65" s="5"/>
     </row>
-    <row r="66" spans="1:25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -6369,7 +6420,7 @@
       <c r="X66" s="5"/>
       <c r="Y66" s="5"/>
     </row>
-    <row r="67" spans="1:25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -6396,7 +6447,7 @@
       <c r="X67" s="5"/>
       <c r="Y67" s="5"/>
     </row>
-    <row r="68" spans="1:25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -6423,7 +6474,7 @@
       <c r="X68" s="5"/>
       <c r="Y68" s="5"/>
     </row>
-    <row r="69" spans="1:25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -6450,7 +6501,7 @@
       <c r="X69" s="5"/>
       <c r="Y69" s="5"/>
     </row>
-    <row r="70" spans="1:25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -6477,7 +6528,7 @@
       <c r="X70" s="5"/>
       <c r="Y70" s="5"/>
     </row>
-    <row r="71" spans="1:25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -6504,7 +6555,7 @@
       <c r="X71" s="5"/>
       <c r="Y71" s="5"/>
     </row>
-    <row r="72" spans="1:25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -6531,7 +6582,7 @@
       <c r="X72" s="5"/>
       <c r="Y72" s="5"/>
     </row>
-    <row r="73" spans="1:25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -6558,7 +6609,7 @@
       <c r="X73" s="5"/>
       <c r="Y73" s="5"/>
     </row>
-    <row r="74" spans="1:25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -6585,7 +6636,7 @@
       <c r="X74" s="5"/>
       <c r="Y74" s="5"/>
     </row>
-    <row r="75" spans="1:25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -6612,7 +6663,7 @@
       <c r="X75" s="5"/>
       <c r="Y75" s="5"/>
     </row>
-    <row r="76" spans="1:25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -6639,7 +6690,7 @@
       <c r="X76" s="5"/>
       <c r="Y76" s="5"/>
     </row>
-    <row r="77" spans="1:25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -6666,7 +6717,7 @@
       <c r="X77" s="5"/>
       <c r="Y77" s="5"/>
     </row>
-    <row r="78" spans="1:25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -6693,7 +6744,7 @@
       <c r="X78" s="5"/>
       <c r="Y78" s="5"/>
     </row>
-    <row r="79" spans="1:25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -6720,7 +6771,7 @@
       <c r="X79" s="5"/>
       <c r="Y79" s="5"/>
     </row>
-    <row r="80" spans="1:25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -6747,7 +6798,7 @@
       <c r="X80" s="5"/>
       <c r="Y80" s="5"/>
     </row>
-    <row r="81" spans="1:25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -6774,7 +6825,7 @@
       <c r="X81" s="5"/>
       <c r="Y81" s="5"/>
     </row>
-    <row r="82" spans="1:25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -6801,7 +6852,7 @@
       <c r="X82" s="5"/>
       <c r="Y82" s="5"/>
     </row>
-    <row r="83" spans="1:25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -6828,7 +6879,7 @@
       <c r="X83" s="5"/>
       <c r="Y83" s="5"/>
     </row>
-    <row r="84" spans="1:25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -6855,7 +6906,7 @@
       <c r="X84" s="5"/>
       <c r="Y84" s="5"/>
     </row>
-    <row r="85" spans="1:25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -6882,7 +6933,7 @@
       <c r="X85" s="5"/>
       <c r="Y85" s="5"/>
     </row>
-    <row r="86" spans="1:25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -6909,7 +6960,7 @@
       <c r="X86" s="5"/>
       <c r="Y86" s="5"/>
     </row>
-    <row r="87" spans="1:25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -6936,7 +6987,7 @@
       <c r="X87" s="5"/>
       <c r="Y87" s="5"/>
     </row>
-    <row r="88" spans="1:25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -6963,7 +7014,7 @@
       <c r="X88" s="5"/>
       <c r="Y88" s="5"/>
     </row>
-    <row r="89" spans="1:25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -6990,7 +7041,7 @@
       <c r="X89" s="5"/>
       <c r="Y89" s="5"/>
     </row>
-    <row r="90" spans="1:25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -7017,7 +7068,7 @@
       <c r="X90" s="5"/>
       <c r="Y90" s="5"/>
     </row>
-    <row r="91" spans="1:25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -7044,7 +7095,7 @@
       <c r="X91" s="5"/>
       <c r="Y91" s="5"/>
     </row>
-    <row r="92" spans="1:25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -7071,7 +7122,7 @@
       <c r="X92" s="5"/>
       <c r="Y92" s="5"/>
     </row>
-    <row r="93" spans="1:25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -7098,7 +7149,7 @@
       <c r="X93" s="5"/>
       <c r="Y93" s="5"/>
     </row>
-    <row r="94" spans="1:25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -7125,7 +7176,7 @@
       <c r="X94" s="5"/>
       <c r="Y94" s="5"/>
     </row>
-    <row r="95" spans="1:25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -7152,7 +7203,7 @@
       <c r="X95" s="5"/>
       <c r="Y95" s="5"/>
     </row>
-    <row r="96" spans="1:25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -7179,7 +7230,7 @@
       <c r="X96" s="5"/>
       <c r="Y96" s="5"/>
     </row>
-    <row r="97" spans="1:25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -7206,7 +7257,7 @@
       <c r="X97" s="5"/>
       <c r="Y97" s="5"/>
     </row>
-    <row r="98" spans="1:25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -7247,17 +7298,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="115" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -7267,7 +7318,7 @@
     <col min="6" max="18" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="38.25">
+    <row r="1" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>2</v>
       </c>
@@ -7323,7 +7374,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -7347,7 +7398,7 @@
       <c r="Q2" s="26"/>
       <c r="R2" s="26"/>
     </row>
-    <row r="3" spans="1:18" ht="15">
+    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -7388,133 +7439,133 @@
       </c>
       <c r="R3" s="8"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B4" s="8"/>
       <c r="C4" s="10"/>
       <c r="D4" s="17"/>
       <c r="E4" s="25"/>
       <c r="R4" s="8"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B5" s="8"/>
       <c r="C5" s="10"/>
       <c r="D5" s="17"/>
       <c r="E5" s="25"/>
       <c r="R5" s="8"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="8"/>
       <c r="C6" s="10"/>
       <c r="D6" s="17"/>
       <c r="E6" s="25"/>
       <c r="R6" s="8"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B7" s="8"/>
       <c r="C7" s="10"/>
       <c r="D7" s="17"/>
       <c r="E7" s="25"/>
       <c r="R7" s="8"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B8" s="8"/>
       <c r="C8" s="10"/>
       <c r="D8" s="17"/>
       <c r="E8" s="25"/>
       <c r="R8" s="8"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B9" s="8"/>
       <c r="C9" s="10"/>
       <c r="D9" s="17"/>
       <c r="E9" s="25"/>
       <c r="R9" s="8"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B10" s="8"/>
       <c r="C10" s="10"/>
       <c r="D10" s="17"/>
       <c r="E10" s="25"/>
       <c r="R10" s="8"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B11" s="8"/>
       <c r="C11" s="10"/>
       <c r="D11" s="17"/>
       <c r="E11" s="25"/>
       <c r="R11" s="8"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B12" s="8"/>
       <c r="C12" s="10"/>
       <c r="D12" s="17"/>
       <c r="E12" s="25"/>
       <c r="R12" s="8"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B13" s="8"/>
       <c r="C13" s="10"/>
       <c r="D13" s="17"/>
       <c r="E13" s="25"/>
       <c r="R13" s="8"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B14" s="8"/>
       <c r="C14" s="10"/>
       <c r="D14" s="17"/>
       <c r="E14" s="25"/>
       <c r="R14" s="8"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B15" s="8"/>
       <c r="C15" s="10"/>
       <c r="D15" s="17"/>
       <c r="E15" s="25"/>
       <c r="R15" s="8"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B16" s="8"/>
       <c r="C16" s="10"/>
       <c r="D16" s="17"/>
       <c r="E16" s="25"/>
       <c r="R16" s="8"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B17" s="8"/>
       <c r="C17" s="10"/>
       <c r="D17" s="17"/>
       <c r="E17" s="25"/>
       <c r="R17" s="8"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B18" s="8"/>
       <c r="C18" s="10"/>
       <c r="D18" s="17"/>
       <c r="E18" s="25"/>
       <c r="R18" s="8"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B19" s="8"/>
       <c r="C19" s="10"/>
       <c r="D19" s="17"/>
       <c r="E19" s="25"/>
       <c r="R19" s="8"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B20" s="8"/>
       <c r="C20" s="10"/>
       <c r="D20" s="17"/>
       <c r="E20" s="25"/>
       <c r="R20" s="8"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B21" s="8"/>
       <c r="C21" s="10"/>
       <c r="D21" s="17"/>
       <c r="E21" s="25"/>
       <c r="R21" s="8"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B22" s="8"/>
       <c r="C22" s="10">
         <f t="shared" ref="C22:C27" si="2">IF((B22&lt;SUM(E22:R22)),SUM(E22:R22),B22)</f>
@@ -7527,7 +7578,7 @@
       <c r="E22" s="25"/>
       <c r="R22" s="8"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B23" s="8"/>
       <c r="C23" s="10">
         <f t="shared" si="2"/>
@@ -7540,7 +7591,7 @@
       <c r="E23" s="25"/>
       <c r="R23" s="8"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B24" s="8"/>
       <c r="C24" s="10">
         <f t="shared" si="2"/>
@@ -7553,7 +7604,7 @@
       <c r="E24" s="25"/>
       <c r="R24" s="8"/>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B25" s="8"/>
       <c r="C25" s="10">
         <f t="shared" si="2"/>
@@ -7566,7 +7617,7 @@
       <c r="E25" s="25"/>
       <c r="R25" s="8"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B26" s="8"/>
       <c r="C26" s="10">
         <f t="shared" si="2"/>
@@ -7579,7 +7630,7 @@
       <c r="E26" s="25"/>
       <c r="R26" s="8"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B27" s="8"/>
       <c r="C27" s="10">
         <f t="shared" si="2"/>
@@ -7604,7 +7655,7 @@
       <c r="Q27" s="24"/>
       <c r="R27" s="36"/>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="38" t="s">
         <v>24</v>
       </c>
@@ -7677,7 +7728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>25</v>
       </c>
@@ -7730,7 +7781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="39" customHeight="1">
+    <row r="30" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="35" t="s">
         <v>26</v>
       </c>
@@ -7799,7 +7850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="35.25" customHeight="1">
+    <row r="31" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="35" t="s">
         <v>28</v>
       </c>
@@ -7868,13 +7919,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="18">
-      <c r="A32" s="110" t="s">
+    <row r="32" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="A32" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="111"/>
-      <c r="C32" s="111"/>
-      <c r="D32" s="111"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="107"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
@@ -7889,13 +7940,13 @@
       <c r="Q32" s="9"/>
       <c r="R32" s="9"/>
     </row>
-    <row r="33" spans="1:18" ht="18">
-      <c r="A33" s="112" t="s">
+    <row r="33" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="A33" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="109"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
@@ -7910,187 +7961,187 @@
       <c r="Q33" s="9"/>
       <c r="R33" s="9"/>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="20"/>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="20"/>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="20"/>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="20"/>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="20"/>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="20"/>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="20"/>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="20"/>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="20"/>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="20"/>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="20"/>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="20"/>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="20"/>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="20"/>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="20"/>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="20"/>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="20"/>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="20"/>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="20"/>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="20"/>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="20"/>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="20"/>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="20"/>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="20"/>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="20"/>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="20"/>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="20"/>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="20"/>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="20"/>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="20"/>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="20"/>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="20"/>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="20"/>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="20"/>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="20"/>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="20"/>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="20"/>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="20"/>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="20"/>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="20"/>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="20"/>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="20"/>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="20"/>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="20"/>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="20"/>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="20"/>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="20"/>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="20"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="20"/>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="20"/>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="20"/>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="20"/>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="20"/>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="20"/>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="20"/>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="20"/>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="20"/>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="20"/>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="20"/>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="20"/>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="20"/>
     </row>
   </sheetData>
@@ -8147,20 +8198,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="115" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="57.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="12.75" customHeight="1">
+    <row r="1" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>35</v>
       </c>
@@ -8188,7 +8239,7 @@
       <c r="S1" s="23"/>
       <c r="T1" s="23"/>
     </row>
-    <row r="2" spans="1:20" ht="12.75" customHeight="1">
+    <row r="2" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -8199,7 +8250,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="12.75" customHeight="1">
+    <row r="3" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -8207,7 +8258,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="12.75" customHeight="1">
+    <row r="4" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -8215,7 +8266,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="12.75" customHeight="1">
+    <row r="5" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -8229,20 +8280,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="2" width="57.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="12.75" customHeight="1">
+    <row r="1" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>32</v>
       </c>
@@ -8276,14 +8327,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W68"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.28515625" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" customWidth="1"/>
@@ -8297,7 +8348,7 @@
     <col min="10" max="10" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="24.75" customHeight="1">
+    <row r="1" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -8343,7 +8394,7 @@
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
     </row>
-    <row r="2" spans="1:23" ht="15">
+    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="18">
         <v>1</v>
@@ -8374,7 +8425,7 @@
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
     </row>
-    <row r="3" spans="1:23" ht="15">
+    <row r="3" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="18"/>
       <c r="C3" s="5"/>
@@ -8403,7 +8454,7 @@
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
     </row>
-    <row r="4" spans="1:23" ht="15">
+    <row r="4" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="18"/>
       <c r="C4" s="5"/>
@@ -8434,7 +8485,7 @@
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
     </row>
-    <row r="5" spans="1:23" ht="15">
+    <row r="5" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="18"/>
       <c r="C5" s="5"/>
@@ -8463,7 +8514,7 @@
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
     </row>
-    <row r="6" spans="1:23" ht="15">
+    <row r="6" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="18"/>
       <c r="C6" s="5"/>
@@ -8492,7 +8543,7 @@
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
     </row>
-    <row r="7" spans="1:23" ht="15">
+    <row r="7" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="18"/>
       <c r="C7" s="5"/>
@@ -8521,7 +8572,7 @@
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
     </row>
-    <row r="8" spans="1:23" ht="15">
+    <row r="8" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="18"/>
       <c r="C8" s="5"/>
@@ -8550,7 +8601,7 @@
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
     </row>
-    <row r="9" spans="1:23" ht="12.75" customHeight="1">
+    <row r="9" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>60</v>
       </c>
@@ -8558,7 +8609,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="12.75" customHeight="1">
+    <row r="10" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>62</v>
       </c>
@@ -8566,7 +8617,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="12.75" customHeight="1">
+    <row r="11" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>63</v>
       </c>
@@ -8574,7 +8625,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="12.75" customHeight="1">
+    <row r="12" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>65</v>
       </c>
@@ -8582,7 +8633,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="12.75" customHeight="1">
+    <row r="13" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>67</v>
       </c>
@@ -8590,12 +8641,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="18" customHeight="1">
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="50" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="12.75" customHeight="1">
+    <row r="16" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>71</v>
       </c>
@@ -8603,7 +8654,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="3:6" ht="12.75" customHeight="1">
+    <row r="17" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>73</v>
       </c>
@@ -8611,7 +8662,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="3:6" ht="12.75" customHeight="1">
+    <row r="18" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>86</v>
       </c>
@@ -8619,7 +8670,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="3:6" ht="12.75" customHeight="1">
+    <row r="19" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>76</v>
       </c>
@@ -8627,7 +8678,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="3:6" ht="12.75" customHeight="1">
+    <row r="20" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>78</v>
       </c>
@@ -8635,7 +8686,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="3:6" ht="12.75" customHeight="1">
+    <row r="21" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>80</v>
       </c>
@@ -8643,7 +8694,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="3:6" ht="12.75" customHeight="1">
+    <row r="22" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
         <v>82</v>
       </c>
@@ -8651,7 +8702,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="3:6" ht="12.75" customHeight="1">
+    <row r="23" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
         <v>62</v>
       </c>
@@ -8659,7 +8710,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="3:6" ht="12.75" customHeight="1">
+    <row r="24" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
         <v>87</v>
       </c>
@@ -8667,7 +8718,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="3:6" ht="12.75" customHeight="1">
+    <row r="25" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
         <v>89</v>
       </c>
@@ -8675,7 +8726,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="3:6" ht="12.75" customHeight="1">
+    <row r="26" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
         <v>75</v>
       </c>
@@ -8683,13 +8734,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="3:6" ht="12.75" customHeight="1"/>
-    <row r="28" spans="3:6" ht="18" customHeight="1">
+    <row r="27" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="50" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="3:6" ht="12.75" customHeight="1">
+    <row r="29" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
         <v>93</v>
       </c>
@@ -8697,7 +8748,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="3:6" ht="12.75" customHeight="1">
+    <row r="30" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
         <v>95</v>
       </c>
@@ -8705,7 +8756,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="3:6" ht="12.75" customHeight="1">
+    <row r="31" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
         <v>96</v>
       </c>
@@ -8713,7 +8764,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="3:6" ht="12.75" customHeight="1">
+    <row r="32" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
         <v>98</v>
       </c>
@@ -8721,7 +8772,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="3:6" ht="12.75" customHeight="1">
+    <row r="33" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
         <v>101</v>
       </c>
@@ -8732,7 +8783,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="3:6" ht="12.75" customHeight="1">
+    <row r="34" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D34" s="46" t="s">
         <v>104</v>
       </c>
@@ -8740,7 +8791,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="3:6" ht="12.75" customHeight="1">
+    <row r="35" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D35" s="46" t="s">
         <v>106</v>
       </c>
@@ -8748,7 +8799,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="3:6" ht="12.75" customHeight="1">
+    <row r="36" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D36" s="46" t="s">
         <v>75</v>
       </c>
@@ -8756,15 +8807,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="3:6" s="48" customFormat="1" ht="12.75" customHeight="1">
+    <row r="38" spans="3:6" s="48" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E38" s="49"/>
     </row>
-    <row r="39" spans="3:6" ht="16.5" customHeight="1">
+    <row r="39" spans="3:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="50" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="3:6" ht="12.75" customHeight="1">
+    <row r="40" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D40" s="46" t="s">
         <v>116</v>
       </c>
@@ -8772,7 +8823,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="3:6" ht="12.75" customHeight="1">
+    <row r="41" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D41" s="46" t="s">
         <v>117</v>
       </c>
@@ -8780,7 +8831,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="3:6" ht="12.75" customHeight="1">
+    <row r="42" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D42" s="46" t="s">
         <v>71</v>
       </c>
@@ -8788,7 +8839,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="3:6" ht="12.75" customHeight="1">
+    <row r="43" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D43" s="46" t="s">
         <v>119</v>
       </c>
@@ -8796,7 +8847,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="3:6" ht="12.75" customHeight="1">
+    <row r="44" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D44" s="46" t="s">
         <v>110</v>
       </c>
@@ -8804,7 +8855,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="3:6" ht="12.75" customHeight="1">
+    <row r="45" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D45" s="46" t="s">
         <v>113</v>
       </c>
@@ -8812,28 +8863,28 @@
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="3:6" ht="12.75" customHeight="1"/>
-    <row r="47" spans="3:6" ht="12.75" customHeight="1"/>
-    <row r="48" spans="3:6" ht="12.75" customHeight="1"/>
-    <row r="52" spans="3:3" ht="12.75" customHeight="1">
+    <row r="46" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="46" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="3:3" ht="12.75" customHeight="1">
+    <row r="53" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="46" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="3:3" ht="12.75" customHeight="1">
+    <row r="54" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="46" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="59" spans="3:3" ht="12.75" customHeight="1"/>
-    <row r="60" spans="3:3" ht="12.75" customHeight="1"/>
-    <row r="61" spans="3:3" ht="12.75" customHeight="1"/>
-    <row r="68" spans="4:5" ht="12.75" customHeight="1">
+    <row r="59" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D68" t="s">
         <v>98</v>
       </c>
@@ -8843,6 +8894,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/xmind/Product Backlog.xlsx
+++ b/xmind/Product Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="17505" windowHeight="1710" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="19965" windowHeight="4320"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog Customer" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <oleSize ref="A1:D18"/>
+  <oleSize ref="A1:D10"/>
 </workbook>
 </file>
 
@@ -2265,6 +2265,18 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="34" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="34" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="34" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2311,18 +2323,6 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="34" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="34" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="34" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2636,11 +2636,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="95828608"/>
-        <c:axId val="95834880"/>
+        <c:axId val="67592192"/>
+        <c:axId val="67594112"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="95828608"/>
+        <c:axId val="67592192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2662,13 +2662,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="95834880"/>
+        <c:crossAx val="67594112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2676,7 +2675,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95834880"/>
+        <c:axId val="67594112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2699,7 +2698,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2721,14 +2719,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95828608"/>
+        <c:crossAx val="67592192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2831,6 +2828,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5991225</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 86"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2864,6 +2909,54 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6648450</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
@@ -2995,6 +3088,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 8"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3028,6 +3169,54 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5705475</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
@@ -3335,8 +3524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V97"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76:D76"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3397,11 +3586,11 @@
       <c r="U1" s="57"/>
     </row>
     <row r="2" spans="1:22" s="59" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="100" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="99"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="102"/>
     </row>
     <row r="3" spans="1:22" s="60" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="64" t="s">
@@ -3427,10 +3616,10 @@
     </row>
     <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="57"/>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="97" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="94" t="s">
         <v>57</v>
       </c>
       <c r="D5" s="66" t="s">
@@ -3457,8 +3646,8 @@
     </row>
     <row r="6" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="57"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="92"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="95"/>
       <c r="D6" s="66" t="s">
         <v>131</v>
       </c>
@@ -3483,8 +3672,8 @@
     </row>
     <row r="7" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="57"/>
-      <c r="B7" s="95"/>
-      <c r="C7" s="92"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="95"/>
       <c r="D7" s="66" t="s">
         <v>128</v>
       </c>
@@ -3508,8 +3697,8 @@
       <c r="V7" s="57"/>
     </row>
     <row r="8" spans="1:22" s="60" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="96"/>
-      <c r="C8" s="93"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="96"/>
       <c r="D8" s="63" t="s">
         <v>127</v>
       </c>
@@ -3641,11 +3830,11 @@
       </c>
     </row>
     <row r="19" spans="2:4" s="59" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="103" t="s">
+      <c r="B19" s="91" t="s">
         <v>140</v>
       </c>
-      <c r="C19" s="104"/>
-      <c r="D19" s="105"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="93"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="73"/>
@@ -3657,11 +3846,11 @@
       </c>
     </row>
     <row r="21" spans="2:4" s="59" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B21" s="103" t="s">
+      <c r="B21" s="91" t="s">
         <v>216</v>
       </c>
-      <c r="C21" s="104"/>
-      <c r="D21" s="105"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="93"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="90"/>
@@ -3673,15 +3862,15 @@
       </c>
     </row>
     <row r="23" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="103" t="s">
+      <c r="B23" s="91" t="s">
         <v>162</v>
       </c>
-      <c r="C23" s="104"/>
-      <c r="D23" s="105"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="93"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="73"/>
-      <c r="C24" s="100" t="s">
+      <c r="C24" s="103" t="s">
         <v>101</v>
       </c>
       <c r="D24" s="75" t="s">
@@ -3690,21 +3879,21 @@
     </row>
     <row r="25" spans="2:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B25" s="73"/>
-      <c r="C25" s="101"/>
+      <c r="C25" s="104"/>
       <c r="D25" s="80" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="73"/>
-      <c r="C26" s="101"/>
+      <c r="C26" s="104"/>
       <c r="D26" s="80" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B27" s="73"/>
-      <c r="C27" s="102"/>
+      <c r="C27" s="105"/>
       <c r="D27" s="80" t="s">
         <v>154</v>
       </c>
@@ -3728,11 +3917,11 @@
       </c>
     </row>
     <row r="30" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B30" s="103" t="s">
+      <c r="B30" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="104"/>
-      <c r="D30" s="105"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="93"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" s="76"/>
@@ -3744,11 +3933,11 @@
       </c>
     </row>
     <row r="32" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B32" s="103" t="s">
+      <c r="B32" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="C32" s="104"/>
-      <c r="D32" s="105"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="93"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="76"/>
@@ -3778,11 +3967,11 @@
       </c>
     </row>
     <row r="36" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B36" s="103" t="s">
+      <c r="B36" s="91" t="s">
         <v>208</v>
       </c>
-      <c r="C36" s="104"/>
-      <c r="D36" s="105"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="93"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="73"/>
@@ -3800,11 +3989,11 @@
       <c r="D39" s="84"/>
     </row>
     <row r="40" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B40" s="103" t="s">
+      <c r="B40" s="91" t="s">
         <v>207</v>
       </c>
-      <c r="C40" s="104"/>
-      <c r="D40" s="105"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="93"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" s="73"/>
@@ -3879,11 +4068,11 @@
       </c>
     </row>
     <row r="49" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B49" s="103" t="s">
+      <c r="B49" s="91" t="s">
         <v>210</v>
       </c>
-      <c r="C49" s="104"/>
-      <c r="D49" s="105"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="93"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" s="73"/>
@@ -3904,11 +4093,11 @@
       </c>
     </row>
     <row r="52" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B52" s="103" t="s">
+      <c r="B52" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="C52" s="104"/>
-      <c r="D52" s="105"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="93"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" s="73"/>
@@ -3956,11 +4145,11 @@
       </c>
     </row>
     <row r="58" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B58" s="103" t="s">
+      <c r="B58" s="91" t="s">
         <v>147</v>
       </c>
-      <c r="C58" s="104"/>
-      <c r="D58" s="105"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="93"/>
     </row>
     <row r="59" spans="2:4" s="85" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="73"/>
@@ -3981,11 +4170,11 @@
       </c>
     </row>
     <row r="61" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B61" s="103" t="s">
+      <c r="B61" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="C61" s="104"/>
-      <c r="D61" s="105"/>
+      <c r="C61" s="92"/>
+      <c r="D61" s="93"/>
     </row>
     <row r="62" spans="2:4" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C62" s="86" t="s">
@@ -4028,11 +4217,11 @@
       <c r="D66" s="75"/>
     </row>
     <row r="67" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B67" s="103" t="s">
+      <c r="B67" s="91" t="s">
         <v>172</v>
       </c>
-      <c r="C67" s="104"/>
-      <c r="D67" s="105"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="93"/>
     </row>
     <row r="68" spans="2:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B68" s="73"/>
@@ -4060,11 +4249,11 @@
       </c>
     </row>
     <row r="71" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B71" s="103" t="s">
+      <c r="B71" s="91" t="s">
         <v>204</v>
       </c>
-      <c r="C71" s="104"/>
-      <c r="D71" s="105"/>
+      <c r="C71" s="92"/>
+      <c r="D71" s="93"/>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" s="73"/>
@@ -4077,11 +4266,11 @@
       <c r="D73" s="84"/>
     </row>
     <row r="74" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B74" s="103" t="s">
+      <c r="B74" s="91" t="s">
         <v>205</v>
       </c>
-      <c r="C74" s="104"/>
-      <c r="D74" s="105"/>
+      <c r="C74" s="92"/>
+      <c r="D74" s="93"/>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" s="73"/>
@@ -4089,11 +4278,11 @@
       <c r="D75" s="84"/>
     </row>
     <row r="76" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B76" s="103" t="s">
+      <c r="B76" s="91" t="s">
         <v>206</v>
       </c>
-      <c r="C76" s="104"/>
-      <c r="D76" s="105"/>
+      <c r="C76" s="92"/>
+      <c r="D76" s="93"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" s="73"/>
@@ -4165,11 +4354,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B49:D49"/>
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B2:D2"/>
@@ -4184,6 +4368,11 @@
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B49:D49"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -4196,7 +4385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+    <sheetView zoomScale="115" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -4259,11 +4448,11 @@
       <c r="U1" s="57"/>
     </row>
     <row r="2" spans="1:22" s="59" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="100" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="99"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="102"/>
     </row>
     <row r="3" spans="1:22" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="64"/>
@@ -4321,11 +4510,11 @@
       </c>
     </row>
     <row r="7" spans="1:22" s="59" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="91" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="104"/>
-      <c r="D7" s="105"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="93"/>
     </row>
     <row r="8" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B8" s="73"/>
@@ -4355,11 +4544,11 @@
       </c>
     </row>
     <row r="11" spans="1:22" s="59" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="91" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="104"/>
-      <c r="D11" s="105"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="93"/>
     </row>
     <row r="12" spans="1:22" s="60" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B12" s="64" t="s">
@@ -4391,11 +4580,11 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="91" t="s">
         <v>181</v>
       </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="105"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="93"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B16" s="73"/>
@@ -4470,11 +4659,11 @@
       </c>
     </row>
     <row r="24" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B24" s="103" t="s">
+      <c r="B24" s="91" t="s">
         <v>184</v>
       </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="105"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="93"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="76"/>
@@ -4504,11 +4693,11 @@
       </c>
     </row>
     <row r="28" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B28" s="103" t="s">
+      <c r="B28" s="91" t="s">
         <v>185</v>
       </c>
-      <c r="C28" s="104"/>
-      <c r="D28" s="105"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="93"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" s="76"/>
@@ -4538,11 +4727,11 @@
       </c>
     </row>
     <row r="32" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B32" s="103" t="s">
+      <c r="B32" s="91" t="s">
         <v>203</v>
       </c>
-      <c r="C32" s="104"/>
-      <c r="D32" s="105"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="93"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="73"/>

--- a/xmind/Product Backlog.xlsx
+++ b/xmind/Product Backlog.xlsx
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <oleSize ref="A1:D10"/>
 </workbook>
 </file>
 
@@ -2265,6 +2264,54 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="16" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="18" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="17" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="34" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="20" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="21" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="34" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2275,54 +2322,6 @@
     </xf>
     <xf numFmtId="0" fontId="40" fillId="34" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="16" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="18" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="17" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="34" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="34" borderId="20" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="34" borderId="21" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2636,11 +2635,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="67592192"/>
-        <c:axId val="67594112"/>
+        <c:axId val="89596672"/>
+        <c:axId val="89598592"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="67592192"/>
+        <c:axId val="89596672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2667,7 +2666,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="67594112"/>
+        <c:crossAx val="89598592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2675,7 +2674,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67594112"/>
+        <c:axId val="89598592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2719,7 +2718,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67592192"/>
+        <c:crossAx val="89596672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2876,6 +2875,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5991225</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 86"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2940,6 +2987,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6648450</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3136,6 +3231,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 8"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3200,6 +3343,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="AutoShape 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5705475</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 4"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3524,8 +3715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3586,11 +3777,11 @@
       <c r="U1" s="57"/>
     </row>
     <row r="2" spans="1:22" s="59" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="102"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="99"/>
     </row>
     <row r="3" spans="1:22" s="60" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="64" t="s">
@@ -3616,10 +3807,10 @@
     </row>
     <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="57"/>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="94" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="91" t="s">
         <v>57</v>
       </c>
       <c r="D5" s="66" t="s">
@@ -3646,8 +3837,8 @@
     </row>
     <row r="6" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="57"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="95"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="92"/>
       <c r="D6" s="66" t="s">
         <v>131</v>
       </c>
@@ -3672,8 +3863,8 @@
     </row>
     <row r="7" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="57"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="95"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="66" t="s">
         <v>128</v>
       </c>
@@ -3697,8 +3888,8 @@
       <c r="V7" s="57"/>
     </row>
     <row r="8" spans="1:22" s="60" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="99"/>
-      <c r="C8" s="96"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="93"/>
       <c r="D8" s="63" t="s">
         <v>127</v>
       </c>
@@ -3830,11 +4021,11 @@
       </c>
     </row>
     <row r="19" spans="2:4" s="59" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="103" t="s">
         <v>140</v>
       </c>
-      <c r="C19" s="92"/>
-      <c r="D19" s="93"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="105"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="73"/>
@@ -3846,11 +4037,11 @@
       </c>
     </row>
     <row r="21" spans="2:4" s="59" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="103" t="s">
         <v>216</v>
       </c>
-      <c r="C21" s="92"/>
-      <c r="D21" s="93"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="105"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="90"/>
@@ -3862,15 +4053,15 @@
       </c>
     </row>
     <row r="23" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="91" t="s">
+      <c r="B23" s="103" t="s">
         <v>162</v>
       </c>
-      <c r="C23" s="92"/>
-      <c r="D23" s="93"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="105"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="73"/>
-      <c r="C24" s="103" t="s">
+      <c r="C24" s="100" t="s">
         <v>101</v>
       </c>
       <c r="D24" s="75" t="s">
@@ -3879,21 +4070,21 @@
     </row>
     <row r="25" spans="2:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B25" s="73"/>
-      <c r="C25" s="104"/>
+      <c r="C25" s="101"/>
       <c r="D25" s="80" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="73"/>
-      <c r="C26" s="104"/>
+      <c r="C26" s="101"/>
       <c r="D26" s="80" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B27" s="73"/>
-      <c r="C27" s="105"/>
+      <c r="C27" s="102"/>
       <c r="D27" s="80" t="s">
         <v>154</v>
       </c>
@@ -3917,11 +4108,11 @@
       </c>
     </row>
     <row r="30" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B30" s="91" t="s">
+      <c r="B30" s="103" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="92"/>
-      <c r="D30" s="93"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="105"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" s="76"/>
@@ -3933,11 +4124,11 @@
       </c>
     </row>
     <row r="32" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B32" s="91" t="s">
+      <c r="B32" s="103" t="s">
         <v>137</v>
       </c>
-      <c r="C32" s="92"/>
-      <c r="D32" s="93"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="105"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="76"/>
@@ -3967,11 +4158,11 @@
       </c>
     </row>
     <row r="36" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B36" s="91" t="s">
+      <c r="B36" s="103" t="s">
         <v>208</v>
       </c>
-      <c r="C36" s="92"/>
-      <c r="D36" s="93"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="105"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="73"/>
@@ -3989,11 +4180,11 @@
       <c r="D39" s="84"/>
     </row>
     <row r="40" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B40" s="91" t="s">
+      <c r="B40" s="103" t="s">
         <v>207</v>
       </c>
-      <c r="C40" s="92"/>
-      <c r="D40" s="93"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="105"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" s="73"/>
@@ -4068,11 +4259,11 @@
       </c>
     </row>
     <row r="49" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B49" s="91" t="s">
+      <c r="B49" s="103" t="s">
         <v>210</v>
       </c>
-      <c r="C49" s="92"/>
-      <c r="D49" s="93"/>
+      <c r="C49" s="104"/>
+      <c r="D49" s="105"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" s="73"/>
@@ -4093,11 +4284,11 @@
       </c>
     </row>
     <row r="52" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B52" s="91" t="s">
+      <c r="B52" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="C52" s="92"/>
-      <c r="D52" s="93"/>
+      <c r="C52" s="104"/>
+      <c r="D52" s="105"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" s="73"/>
@@ -4145,11 +4336,11 @@
       </c>
     </row>
     <row r="58" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B58" s="91" t="s">
+      <c r="B58" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="C58" s="92"/>
-      <c r="D58" s="93"/>
+      <c r="C58" s="104"/>
+      <c r="D58" s="105"/>
     </row>
     <row r="59" spans="2:4" s="85" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="73"/>
@@ -4170,11 +4361,11 @@
       </c>
     </row>
     <row r="61" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B61" s="91" t="s">
+      <c r="B61" s="103" t="s">
         <v>152</v>
       </c>
-      <c r="C61" s="92"/>
-      <c r="D61" s="93"/>
+      <c r="C61" s="104"/>
+      <c r="D61" s="105"/>
     </row>
     <row r="62" spans="2:4" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C62" s="86" t="s">
@@ -4217,11 +4408,11 @@
       <c r="D66" s="75"/>
     </row>
     <row r="67" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B67" s="91" t="s">
+      <c r="B67" s="103" t="s">
         <v>172</v>
       </c>
-      <c r="C67" s="92"/>
-      <c r="D67" s="93"/>
+      <c r="C67" s="104"/>
+      <c r="D67" s="105"/>
     </row>
     <row r="68" spans="2:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B68" s="73"/>
@@ -4249,11 +4440,11 @@
       </c>
     </row>
     <row r="71" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B71" s="91" t="s">
+      <c r="B71" s="103" t="s">
         <v>204</v>
       </c>
-      <c r="C71" s="92"/>
-      <c r="D71" s="93"/>
+      <c r="C71" s="104"/>
+      <c r="D71" s="105"/>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" s="73"/>
@@ -4266,11 +4457,11 @@
       <c r="D73" s="84"/>
     </row>
     <row r="74" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B74" s="91" t="s">
+      <c r="B74" s="103" t="s">
         <v>205</v>
       </c>
-      <c r="C74" s="92"/>
-      <c r="D74" s="93"/>
+      <c r="C74" s="104"/>
+      <c r="D74" s="105"/>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" s="73"/>
@@ -4278,11 +4469,11 @@
       <c r="D75" s="84"/>
     </row>
     <row r="76" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B76" s="91" t="s">
+      <c r="B76" s="103" t="s">
         <v>206</v>
       </c>
-      <c r="C76" s="92"/>
-      <c r="D76" s="93"/>
+      <c r="C76" s="104"/>
+      <c r="D76" s="105"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" s="73"/>
@@ -4354,6 +4545,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B49:D49"/>
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B2:D2"/>
@@ -4368,11 +4564,6 @@
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B49:D49"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -4448,11 +4639,11 @@
       <c r="U1" s="57"/>
     </row>
     <row r="2" spans="1:22" s="59" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="97" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="102"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="99"/>
     </row>
     <row r="3" spans="1:22" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="64"/>
@@ -4510,11 +4701,11 @@
       </c>
     </row>
     <row r="7" spans="1:22" s="59" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="103" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="93"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="105"/>
     </row>
     <row r="8" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B8" s="73"/>
@@ -4544,11 +4735,11 @@
       </c>
     </row>
     <row r="11" spans="1:22" s="59" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="103" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="93"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="105"/>
     </row>
     <row r="12" spans="1:22" s="60" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B12" s="64" t="s">
@@ -4580,11 +4771,11 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="103" t="s">
         <v>181</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="93"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="105"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B16" s="73"/>
@@ -4659,11 +4850,11 @@
       </c>
     </row>
     <row r="24" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B24" s="91" t="s">
+      <c r="B24" s="103" t="s">
         <v>184</v>
       </c>
-      <c r="C24" s="92"/>
-      <c r="D24" s="93"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="105"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="76"/>
@@ -4693,11 +4884,11 @@
       </c>
     </row>
     <row r="28" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B28" s="91" t="s">
+      <c r="B28" s="103" t="s">
         <v>185</v>
       </c>
-      <c r="C28" s="92"/>
-      <c r="D28" s="93"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="105"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" s="76"/>
@@ -4727,11 +4918,11 @@
       </c>
     </row>
     <row r="32" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B32" s="91" t="s">
+      <c r="B32" s="103" t="s">
         <v>203</v>
       </c>
-      <c r="C32" s="92"/>
-      <c r="D32" s="93"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="105"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="73"/>
@@ -5772,7 +5963,7 @@
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
     </row>
-    <row r="36" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -5799,7 +5990,7 @@
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -5826,7 +6017,7 @@
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -5853,7 +6044,7 @@
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -5880,7 +6071,7 @@
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -5907,7 +6098,7 @@
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -5934,7 +6125,7 @@
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -5961,7 +6152,7 @@
       <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -5988,7 +6179,7 @@
       <c r="X43" s="5"/>
       <c r="Y43" s="5"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -6015,7 +6206,7 @@
       <c r="X44" s="5"/>
       <c r="Y44" s="5"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -6042,7 +6233,7 @@
       <c r="X45" s="5"/>
       <c r="Y45" s="5"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -6069,7 +6260,7 @@
       <c r="X46" s="5"/>
       <c r="Y46" s="5"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -6096,7 +6287,7 @@
       <c r="X47" s="5"/>
       <c r="Y47" s="5"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -6123,7 +6314,7 @@
       <c r="X48" s="5"/>
       <c r="Y48" s="5"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -6150,7 +6341,7 @@
       <c r="X49" s="5"/>
       <c r="Y49" s="5"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -6177,7 +6368,7 @@
       <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -6204,7 +6395,7 @@
       <c r="X51" s="5"/>
       <c r="Y51" s="5"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -6231,7 +6422,7 @@
       <c r="X52" s="5"/>
       <c r="Y52" s="5"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -6258,7 +6449,7 @@
       <c r="X53" s="5"/>
       <c r="Y53" s="5"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -6285,7 +6476,7 @@
       <c r="X54" s="5"/>
       <c r="Y54" s="5"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -6312,7 +6503,7 @@
       <c r="X55" s="5"/>
       <c r="Y55" s="5"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -6339,7 +6530,7 @@
       <c r="X56" s="5"/>
       <c r="Y56" s="5"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -6366,7 +6557,7 @@
       <c r="X57" s="5"/>
       <c r="Y57" s="5"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -6393,7 +6584,7 @@
       <c r="X58" s="5"/>
       <c r="Y58" s="5"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -6420,7 +6611,7 @@
       <c r="X59" s="5"/>
       <c r="Y59" s="5"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -6447,7 +6638,7 @@
       <c r="X60" s="5"/>
       <c r="Y60" s="5"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -6474,7 +6665,7 @@
       <c r="X61" s="5"/>
       <c r="Y61" s="5"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -6501,7 +6692,7 @@
       <c r="X62" s="5"/>
       <c r="Y62" s="5"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -6528,7 +6719,7 @@
       <c r="X63" s="5"/>
       <c r="Y63" s="5"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -6555,7 +6746,7 @@
       <c r="X64" s="5"/>
       <c r="Y64" s="5"/>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -6582,7 +6773,7 @@
       <c r="X65" s="5"/>
       <c r="Y65" s="5"/>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -6609,7 +6800,7 @@
       <c r="X66" s="5"/>
       <c r="Y66" s="5"/>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -6636,7 +6827,7 @@
       <c r="X67" s="5"/>
       <c r="Y67" s="5"/>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -6663,7 +6854,7 @@
       <c r="X68" s="5"/>
       <c r="Y68" s="5"/>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -6690,7 +6881,7 @@
       <c r="X69" s="5"/>
       <c r="Y69" s="5"/>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -6717,7 +6908,7 @@
       <c r="X70" s="5"/>
       <c r="Y70" s="5"/>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -6744,7 +6935,7 @@
       <c r="X71" s="5"/>
       <c r="Y71" s="5"/>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -6771,7 +6962,7 @@
       <c r="X72" s="5"/>
       <c r="Y72" s="5"/>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -6798,7 +6989,7 @@
       <c r="X73" s="5"/>
       <c r="Y73" s="5"/>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -6825,7 +7016,7 @@
       <c r="X74" s="5"/>
       <c r="Y74" s="5"/>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -6852,7 +7043,7 @@
       <c r="X75" s="5"/>
       <c r="Y75" s="5"/>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -6879,7 +7070,7 @@
       <c r="X76" s="5"/>
       <c r="Y76" s="5"/>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -6906,7 +7097,7 @@
       <c r="X77" s="5"/>
       <c r="Y77" s="5"/>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -6933,7 +7124,7 @@
       <c r="X78" s="5"/>
       <c r="Y78" s="5"/>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -6960,7 +7151,7 @@
       <c r="X79" s="5"/>
       <c r="Y79" s="5"/>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -6987,7 +7178,7 @@
       <c r="X80" s="5"/>
       <c r="Y80" s="5"/>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -7014,7 +7205,7 @@
       <c r="X81" s="5"/>
       <c r="Y81" s="5"/>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -7041,7 +7232,7 @@
       <c r="X82" s="5"/>
       <c r="Y82" s="5"/>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -7068,7 +7259,7 @@
       <c r="X83" s="5"/>
       <c r="Y83" s="5"/>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -7095,7 +7286,7 @@
       <c r="X84" s="5"/>
       <c r="Y84" s="5"/>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -7122,7 +7313,7 @@
       <c r="X85" s="5"/>
       <c r="Y85" s="5"/>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -7149,7 +7340,7 @@
       <c r="X86" s="5"/>
       <c r="Y86" s="5"/>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -7176,7 +7367,7 @@
       <c r="X87" s="5"/>
       <c r="Y87" s="5"/>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -7203,7 +7394,7 @@
       <c r="X88" s="5"/>
       <c r="Y88" s="5"/>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -7230,7 +7421,7 @@
       <c r="X89" s="5"/>
       <c r="Y89" s="5"/>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -7257,7 +7448,7 @@
       <c r="X90" s="5"/>
       <c r="Y90" s="5"/>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -7284,7 +7475,7 @@
       <c r="X91" s="5"/>
       <c r="Y91" s="5"/>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -7311,7 +7502,7 @@
       <c r="X92" s="5"/>
       <c r="Y92" s="5"/>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -7338,7 +7529,7 @@
       <c r="X93" s="5"/>
       <c r="Y93" s="5"/>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -7365,7 +7556,7 @@
       <c r="X94" s="5"/>
       <c r="Y94" s="5"/>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -7392,7 +7583,7 @@
       <c r="X95" s="5"/>
       <c r="Y95" s="5"/>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -7419,7 +7610,7 @@
       <c r="X96" s="5"/>
       <c r="Y96" s="5"/>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -7446,7 +7637,7 @@
       <c r="X97" s="5"/>
       <c r="Y97" s="5"/>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
